--- a/data/HR3/Market Data/HR3_market_data_2040.xlsx
+++ b/data/HR3/Market Data/HR3_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\HR3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545E19AA-EA12-42DC-9EA1-10CF3340D88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B202BBC-C927-46A6-A0A5-964CA28628C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3540" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -859,7 +859,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,10 +872,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR3/Market Data/HR3_market_data_2040.xlsx
+++ b/data/HR3/Market Data/HR3_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\HR3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B202BBC-C927-46A6-A0A5-964CA28628C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D207CE1D-5580-43C0-9B29-D91779A8B895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3540" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10410" yWindow="3870" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -859,7 +859,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,11 +872,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR3/Market Data/HR3_market_data_2040.xlsx
+++ b/data/HR3/Market Data/HR3_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\HR3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D207CE1D-5580-43C0-9B29-D91779A8B895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BF64D3-323D-4F94-A8D2-A6E01C695B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10410" yWindow="3870" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -859,7 +859,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,10 +872,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR3/Market Data/HR3_market_data_2040.xlsx
+++ b/data/HR3/Market Data/HR3_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\HR3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BF64D3-323D-4F94-A8D2-A6E01C695B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7C0077-983D-499D-A1CA-94E9C476E18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -859,7 +859,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,11 +872,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR3/Market Data/HR3_market_data_2040.xlsx
+++ b/data/HR3/Market Data/HR3_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\HR3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7C0077-983D-499D-A1CA-94E9C476E18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B94F92-EB19-4B5B-9D64-9E07BB303462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -859,7 +859,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,10 +872,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR3/Market Data/HR3_market_data_2040.xlsx
+++ b/data/HR3/Market Data/HR3_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\HR3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B94F92-EB19-4B5B-9D64-9E07BB303462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97BB3C2-C168-4415-A4FD-C34F01A32EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -859,7 +859,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,11 +872,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR3/Market Data/HR3_market_data_2040.xlsx
+++ b/data/HR3/Market Data/HR3_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\HR3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97BB3C2-C168-4415-A4FD-C34F01A32EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6A734E-7421-4274-B085-EAE6633013E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -859,7 +859,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,10 +872,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
